--- a/src/demos/zdemo_excel15_07.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_07.w3mi.data.xlsx
@@ -386,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="B4:I30"/>
+  <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,10 +394,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="0.0000000000000000E+00">
       <c r=""/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -423,7 +423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B5">
         <v>10</v>
       </c>
@@ -449,7 +449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B6">
         <v>20</v>
       </c>
@@ -475,7 +475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B7">
         <v>30</v>
       </c>
@@ -501,7 +501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B8">
         <v>40</v>
       </c>
@@ -527,7 +527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B9">
         <v>50</v>
       </c>
@@ -553,7 +553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B12">
         <v>10</v>
       </c>
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B13">
         <v>20</v>
       </c>
@@ -604,7 +604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B14">
         <v>30</v>
       </c>
@@ -621,7 +621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B15">
         <v>40</v>
       </c>
@@ -638,7 +638,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B16">
         <v>50</v>
       </c>
@@ -655,7 +655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -666,7 +666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B19">
         <v>10</v>
       </c>
@@ -677,7 +677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B20">
         <v>20</v>
       </c>
@@ -688,7 +688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B21">
         <v>30</v>
       </c>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B22">
         <v>40</v>
       </c>
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B23">
         <v>50</v>
       </c>
@@ -721,7 +721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B26">
         <v>10</v>
       </c>
@@ -743,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B27">
         <v>20</v>
       </c>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B28">
         <v>30</v>
       </c>
@@ -765,7 +765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B29">
         <v>40</v>
       </c>
@@ -776,7 +776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="0.0000000000000000E+00">
       <c r="B30">
         <v>50</v>
       </c>
@@ -977,8 +977,8 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="max" val=""/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>

--- a/src/demos/zdemo_excel15_07.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_07.w3mi.data.xlsx
@@ -798,6 +798,203 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5:B9">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="66"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C9">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3ArrowsGray" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="66"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D9">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Flags" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="66"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E9">
+    <cfRule type="iconSet" priority="1">
+      <iconSet showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="66"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F9">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3TrafficLights2" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="66"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G9">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Signs" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="66"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H9">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="66"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I9">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="66"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B16">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="4Arrows" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C16">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="4ArrowsGray" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D16">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="4RedToBlack" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E16">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="4Rating" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F16">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="4TrafficLights" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B23">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Arrows" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C23">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5ArrowsGray" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D23">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Rating" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E23">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Quarters" showValue="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B30">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="max" val=""/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>

--- a/src/demos/zdemo_excel15_07.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_07.w3mi.data.xlsx
@@ -237,7 +237,7 @@
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -375,9 +375,9 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst/>
+  <a:objectDefaults xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extraClrSchemeLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </a:theme>
 </file>
 
